--- a/_Miscellaneous/Presentation_EHESS_2022/Doc.xlsx
+++ b/_Miscellaneous/Presentation_EHESS_2022/Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\odriis\_Miscellaneous\Presentation_EHESS_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB9C1A7-F1A1-4946-8DE6-5BFFFAF6D392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBFFA67-67ED-4AD0-BC5E-84CE7060DA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{5CA26F1D-2789-458F-A636-0FAA33BF32FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{5CA26F1D-2789-458F-A636-0FAA33BF32FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
   <si>
     <t>2016-17</t>
   </si>
@@ -418,13 +418,25 @@
   </si>
   <si>
     <t>Do you keep working very hard even when you feel like quitting?</t>
+  </si>
+  <si>
+    <t>Le bas de la boite représente le premier quartile. Le haut représente le troisième. La barre noire, épaisse, au milieu représente la médiane. La barre transversale grise représente la moyenne.</t>
+  </si>
+  <si>
+    <t>Chez les hommes, nous voyons que la boite est de plus en plus grande, ce qui montre un accroissement des inégalités : les 25% les plus riches deviennent plus riches, les 25 % les plus pauvres deviennent plus pauvres.</t>
+  </si>
+  <si>
+    <t>L'échelle est en pour 10,000 roupies, donc: 5=50,000 roupies, 10=100,000 roupies, etc. Il s'agit du revenu annuel.</t>
+  </si>
+  <si>
+    <t>L'échelle est en pour 10,000 roupies, donc: 10=100,000 roupies, 20=200,000 roupies, etc. Il s'agit du revenu annuel des ménages.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,13 +458,34 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -496,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +587,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2337,29 +2376,506 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201DD649-B1AA-4310-A96E-5DE2EAD2A8CF}">
-  <dimension ref="A1"/>
+  <dimension ref="Z3:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+    </row>
+    <row r="4" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+    </row>
+    <row r="5" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+    </row>
+    <row r="6" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+    </row>
+    <row r="7" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+    </row>
+    <row r="8" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+    </row>
+    <row r="9" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+    </row>
+    <row r="10" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+    </row>
+    <row r="11" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+    </row>
+    <row r="12" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+    </row>
+    <row r="13" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+    </row>
+    <row r="14" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+    </row>
+    <row r="15" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+    </row>
+    <row r="16" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+    </row>
+    <row r="18" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z18" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+    </row>
+    <row r="19" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+    </row>
+    <row r="20" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+    </row>
+    <row r="21" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+    </row>
+    <row r="22" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+    </row>
+    <row r="23" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+    </row>
+    <row r="24" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+    </row>
+    <row r="25" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+    </row>
+    <row r="26" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+    </row>
+    <row r="27" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+    </row>
+    <row r="28" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+    </row>
+    <row r="29" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+    </row>
+    <row r="30" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+    </row>
+    <row r="32" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z32" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+    </row>
+    <row r="33" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+    </row>
+    <row r="34" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+    </row>
+    <row r="35" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+    </row>
+    <row r="36" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+    </row>
+    <row r="37" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+    </row>
+    <row r="38" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+    </row>
+    <row r="39" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+    </row>
+    <row r="40" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+    </row>
+    <row r="41" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+    </row>
+    <row r="42" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+    </row>
+    <row r="43" spans="26:30" x14ac:dyDescent="0.3">
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Z3:AD16"/>
+    <mergeCell ref="Z18:AD30"/>
+    <mergeCell ref="Z32:AD43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFBF410-CA85-42E4-8FD2-9842C8EAE67E}">
-  <dimension ref="A1"/>
+  <dimension ref="AK2:AO30"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="AL40" sqref="AL40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+    </row>
+    <row r="3" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+    </row>
+    <row r="4" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+    </row>
+    <row r="5" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+    </row>
+    <row r="6" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+    </row>
+    <row r="7" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+    </row>
+    <row r="8" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+    </row>
+    <row r="9" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+    </row>
+    <row r="10" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+    </row>
+    <row r="11" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+    </row>
+    <row r="12" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+    </row>
+    <row r="13" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+    </row>
+    <row r="17" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK17" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+    </row>
+    <row r="18" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+    </row>
+    <row r="19" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+    </row>
+    <row r="20" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+    </row>
+    <row r="21" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+    </row>
+    <row r="22" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+    </row>
+    <row r="23" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+    </row>
+    <row r="24" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+    </row>
+    <row r="25" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+    </row>
+    <row r="26" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+    </row>
+    <row r="27" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+    </row>
+    <row r="28" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+    </row>
+    <row r="29" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+    </row>
+    <row r="30" spans="37:41" x14ac:dyDescent="0.3">
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AK2:AO13"/>
+    <mergeCell ref="AK17:AO30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2369,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7157CEE7-48FE-4A30-A338-2EE88CD509C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
